--- a/ECObase/data/recorddata.xlsx
+++ b/ECObase/data/recorddata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B490361A-5864-4F6A-AC41-63B636FBC91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D4B77-F571-4F03-AF7E-F0759D3E97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
   <si>
     <t>log</t>
   </si>
@@ -100,6 +100,96 @@
   </si>
   <si>
     <t>ECObase</t>
+  </si>
+  <si>
+    <t>04B-005</t>
+  </si>
+  <si>
+    <t>Click or tap here to enter text.</t>
+  </si>
+  <si>
+    <t>Click or tap to enter a date.</t>
+  </si>
+  <si>
+    <t>No known risk</t>
+  </si>
+  <si>
+    <t>Product development</t>
+  </si>
+  <si>
+    <t>Schematic Draft</t>
+  </si>
+  <si>
+    <t>Initial release._x000B_Using revision letter B due to 04B-005-A being used on previously manufactured prototypes.</t>
+  </si>
+  <si>
+    <t>04A-005</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Initial release._x000B_Revision letter is B due to previously manufactured prototype.</t>
+  </si>
+  <si>
+    <t>No known risk.</t>
+  </si>
+  <si>
+    <t>02SEP2020 Schematic Draft</t>
+  </si>
+  <si>
+    <t>04A-015</t>
+  </si>
+  <si>
+    <t>Initial release._x000B_Revision letter B used due to previously manufactured prototypes.</t>
+  </si>
+  <si>
+    <t>Product development.</t>
+  </si>
+  <si>
+    <t>03SEP2022 Schematic Draft</t>
+  </si>
+  <si>
+    <t>04A-010</t>
+  </si>
+  <si>
+    <t>Initial release._x000B_Revision letter B is being used due to previously manufactured prototype.</t>
+  </si>
+  <si>
+    <t>04A-020</t>
+  </si>
+  <si>
+    <t>Initial release.</t>
+  </si>
+  <si>
+    <t>08A-005</t>
+  </si>
+  <si>
+    <t>No known risks.</t>
+  </si>
+  <si>
+    <t>08C-005</t>
+  </si>
+  <si>
+    <t>Schematic Draft 07SEP2022</t>
+  </si>
+  <si>
+    <t>08D-005</t>
+  </si>
+  <si>
+    <t>Schematic Draft 08SEP2022</t>
+  </si>
+  <si>
+    <t>Schematic Draft 10SEP2022</t>
+  </si>
+  <si>
+    <t>07D-003</t>
+  </si>
+  <si>
+    <t>Research and development.</t>
+  </si>
+  <si>
+    <t>07D-010</t>
   </si>
 </sst>
 </file>
@@ -479,7 +569,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -624,8 +714,723 @@
         <v>26</v>
       </c>
     </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44805</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3">
+        <v>20220901220529</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>1002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44806</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4">
+        <v>20220902213135</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44807</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5">
+        <v>20220903210040</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>1004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44808</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>20220904101812</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>1005</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44809</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <v>20220905181646</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>1006</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44810</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8">
+        <v>20220906180404</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>1007</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44811</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9">
+        <v>20220907170801</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>1008</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44812</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10">
+        <v>20220908193011</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="C11">
+        <v>1009</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44814</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11">
+        <v>20220910124251</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>1010</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44821</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>20220917114445</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>1011</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44821</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>20220917225316</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BzSKBBletan/Fp0mDD5uf+XZl/hmAkqD2qePNn9a4wl0qn7T7b+ZVl22ne5Lhx2/TAAjGvWh3Y3RHTmkNf9MFg==" saltValue="oxdJZn7Q+PV2hXLmI0PFhA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="grdcGj7TlDaIm98XqIHkml/9dCwCxaBhHU4Cxa8NuFBfwqWXQcRhi7dvJFoP6U33mu0RBzU1BuXoQh60zZcuhg==" saltValue="IPujeZSjmZGuNIkBsKoEng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ECObase/data/recorddata.xlsx
+++ b/ECObase/data/recorddata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D4B77-F571-4F03-AF7E-F0759D3E97ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380D2D4E-5232-45E3-9A79-1F91F07FF4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="312" yWindow="108" windowWidth="22692" windowHeight="7992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="62">
   <si>
     <t>log</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>07D-010</t>
+  </si>
+  <si>
+    <t>TestBase 2.0 Release</t>
+  </si>
+  <si>
+    <t>N.MANTEUFEL</t>
+  </si>
+  <si>
+    <t>Extended existing sections to improve focus on the purpose and scope of each test._x000B__x000B_Added COMPONENTS UNDER TEST section to collect the information needed to generate a failure-mode traceability report to show what the test plan does and does not cover.</t>
+  </si>
+  <si>
+    <t>Quality Engineering</t>
   </si>
 </sst>
 </file>
@@ -569,7 +581,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -1429,8 +1441,73 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>1012</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44896</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44896</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2">
+        <v>44896</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14">
+        <v>20221201201721</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="grdcGj7TlDaIm98XqIHkml/9dCwCxaBhHU4Cxa8NuFBfwqWXQcRhi7dvJFoP6U33mu0RBzU1BuXoQh60zZcuhg==" saltValue="IPujeZSjmZGuNIkBsKoEng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="W+B35mJHrvGefiyWQ94EEulfNClL3VOJT/Kv4XD1eV7/I7+UpxOjhlV5xBDTaZqvXjmrC9gWgcHM5VhAW7tXng==" saltValue="oTlbzszXNtAqbeFB0YddcA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
